--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N2">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O2">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P2">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q2">
-        <v>19.73122436383944</v>
+        <v>20.66835144790445</v>
       </c>
       <c r="R2">
-        <v>177.581019274555</v>
+        <v>186.01516303114</v>
       </c>
       <c r="S2">
-        <v>0.02336187531721208</v>
+        <v>0.02383753331888343</v>
       </c>
       <c r="T2">
-        <v>0.02336187531721209</v>
+        <v>0.02383753331888343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,22 +626,22 @@
         <v>14.240499</v>
       </c>
       <c r="O3">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P3">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q3">
         <v>0.7590201789776666</v>
       </c>
       <c r="R3">
-        <v>6.831181610799001</v>
+        <v>6.831181610799</v>
       </c>
       <c r="S3">
-        <v>0.0008986839568365131</v>
+        <v>0.00087540454552893</v>
       </c>
       <c r="T3">
-        <v>0.0008986839568365135</v>
+        <v>0.0008754045455289302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N4">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O4">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P4">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q4">
-        <v>0.1200457615512222</v>
+        <v>0.1102582088477778</v>
       </c>
       <c r="R4">
-        <v>1.080411853961</v>
+        <v>0.9923238796299999</v>
       </c>
       <c r="S4">
-        <v>0.0001421348245808354</v>
+        <v>0.0001271646523775262</v>
       </c>
       <c r="T4">
-        <v>0.0001421348245808354</v>
+        <v>0.0001271646523775263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N5">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O5">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P5">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q5">
-        <v>1.694713330153444</v>
+        <v>1.316277690954444</v>
       </c>
       <c r="R5">
-        <v>15.252419971381</v>
+        <v>11.84649921859</v>
       </c>
       <c r="S5">
-        <v>0.002006549658926386</v>
+        <v>0.00151810914354327</v>
       </c>
       <c r="T5">
-        <v>0.002006549658926386</v>
+        <v>0.00151810914354327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,34 +800,34 @@
         <v>0.02647771943467731</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N6">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O6">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P6">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q6">
-        <v>0.05783392516244444</v>
+        <v>0.1036193069081111</v>
       </c>
       <c r="R6">
-        <v>0.520505326462</v>
+        <v>0.9325737621729999</v>
       </c>
       <c r="S6">
-        <v>6.847567712149277E-05</v>
+        <v>0.0001195077743441479</v>
       </c>
       <c r="T6">
-        <v>6.847567712149278E-05</v>
+        <v>0.0001195077743441479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N7">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O7">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P7">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q7">
-        <v>725.4698271284534</v>
+        <v>759.9257438590934</v>
       </c>
       <c r="R7">
-        <v>6529.228444156081</v>
+        <v>6839.33169473184</v>
       </c>
       <c r="S7">
-        <v>0.8589601605683834</v>
+        <v>0.8764489652102881</v>
       </c>
       <c r="T7">
-        <v>0.8589601605683835</v>
+        <v>0.8764489652102884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,10 +936,10 @@
         <v>14.240499</v>
       </c>
       <c r="O8">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P8">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q8">
         <v>27.907352725616</v>
@@ -948,10 +948,10 @@
         <v>251.166174530544</v>
       </c>
       <c r="S8">
-        <v>0.0330424550847505</v>
+        <v>0.03218652692816254</v>
       </c>
       <c r="T8">
-        <v>0.03304245508475051</v>
+        <v>0.03218652692816255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N9">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O9">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P9">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q9">
-        <v>4.413794920890667</v>
+        <v>4.053930067253333</v>
       </c>
       <c r="R9">
-        <v>39.724154288016</v>
+        <v>36.48537060528</v>
       </c>
       <c r="S9">
-        <v>0.00522595682438061</v>
+        <v>0.004675539473680302</v>
       </c>
       <c r="T9">
-        <v>0.00522595682438061</v>
+        <v>0.004675539473680304</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N10">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O10">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P10">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q10">
-        <v>62.31054718083733</v>
+        <v>48.39637577989333</v>
       </c>
       <c r="R10">
-        <v>560.7949246275359</v>
+        <v>435.56738201904</v>
       </c>
       <c r="S10">
-        <v>0.07377602156578605</v>
+        <v>0.05581723453243188</v>
       </c>
       <c r="T10">
-        <v>0.07377602156578607</v>
+        <v>0.05581723453243189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,34 +1110,34 @@
         <v>0.9735222805653228</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N11">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O11">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P11">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q11">
-        <v>2.126414809141334</v>
+        <v>3.809833555365334</v>
       </c>
       <c r="R11">
-        <v>19.137733282272</v>
+        <v>34.288501998288</v>
       </c>
       <c r="S11">
-        <v>0.002517686522022125</v>
+        <v>0.004394014420759675</v>
       </c>
       <c r="T11">
-        <v>0.002517686522022125</v>
+        <v>0.004394014420759677</v>
       </c>
     </row>
   </sheetData>
